--- a/Code/Results/Cases/Case_0_137/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_137/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.126699414455568</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.136701843517806</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.111804366384672</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.144502723721839</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.131360129272003</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.139236031564842</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.114398302632477</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.147018765053673</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.132966790424391</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.135577617796444</v>
+      </c>
+      <c r="D3">
+        <v>1.145618891773726</v>
+      </c>
+      <c r="E3">
+        <v>1.119765274774396</v>
+      </c>
+      <c r="F3">
+        <v>1.153634906736893</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.023504579208684</v>
+      </c>
+      <c r="J3">
+        <v>1.139883262052787</v>
+      </c>
+      <c r="K3">
+        <v>1.147963823585357</v>
+      </c>
+      <c r="L3">
+        <v>1.122166987947636</v>
+      </c>
+      <c r="M3">
+        <v>1.155962784828376</v>
+      </c>
+      <c r="N3">
+        <v>1.14150202703134</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.141179653418257</v>
+      </c>
+      <c r="D4">
+        <v>1.151245579344136</v>
+      </c>
+      <c r="E4">
+        <v>1.124784008329986</v>
+      </c>
+      <c r="F4">
+        <v>1.159398553898078</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.023443335729026</v>
+      </c>
+      <c r="J4">
+        <v>1.145258412066986</v>
+      </c>
+      <c r="K4">
+        <v>1.153469245178672</v>
+      </c>
+      <c r="L4">
+        <v>1.12706240401383</v>
+      </c>
+      <c r="M4">
+        <v>1.161605892627787</v>
+      </c>
+      <c r="N4">
+        <v>1.146884810375097</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.143502637307458</v>
+      </c>
+      <c r="D5">
+        <v>1.153578816975675</v>
+      </c>
+      <c r="E5">
+        <v>1.126864037824679</v>
+      </c>
+      <c r="F5">
+        <v>1.161788872549439</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.023416932628352</v>
+      </c>
+      <c r="J5">
+        <v>1.14748663748556</v>
+      </c>
+      <c r="K5">
+        <v>1.155751759512123</v>
+      </c>
+      <c r="L5">
+        <v>1.129090818263879</v>
+      </c>
+      <c r="M5">
+        <v>1.16394579782136</v>
+      </c>
+      <c r="N5">
+        <v>1.149116200129346</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.143890850363521</v>
+      </c>
+      <c r="D6">
+        <v>1.153968745393484</v>
+      </c>
+      <c r="E6">
+        <v>1.127211585460985</v>
+      </c>
+      <c r="F6">
+        <v>1.162188357123523</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.023412460900047</v>
+      </c>
+      <c r="J6">
+        <v>1.147858975059125</v>
+      </c>
+      <c r="K6">
+        <v>1.156133185523216</v>
+      </c>
+      <c r="L6">
+        <v>1.129429712058239</v>
+      </c>
+      <c r="M6">
+        <v>1.164336832261389</v>
+      </c>
+      <c r="N6">
+        <v>1.149489066464974</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.141210816816266</v>
+      </c>
+      <c r="D7">
+        <v>1.151276880177802</v>
+      </c>
+      <c r="E7">
+        <v>1.124811916693268</v>
+      </c>
+      <c r="F7">
+        <v>1.159430619351286</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.02344298551034</v>
+      </c>
+      <c r="J7">
+        <v>1.145288306923717</v>
+      </c>
+      <c r="K7">
+        <v>1.153499867272578</v>
+      </c>
+      <c r="L7">
+        <v>1.127089621832441</v>
+      </c>
+      <c r="M7">
+        <v>1.161637283464492</v>
+      </c>
+      <c r="N7">
+        <v>1.146914747685954</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.129730701270623</v>
+      </c>
+      <c r="D8">
+        <v>1.139746361834538</v>
+      </c>
+      <c r="E8">
+        <v>1.114523408738737</v>
+      </c>
+      <c r="F8">
+        <v>1.147620438961381</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.023565007130014</v>
+      </c>
+      <c r="J8">
+        <v>1.134270784984269</v>
+      </c>
+      <c r="K8">
+        <v>1.142216323921529</v>
+      </c>
+      <c r="L8">
+        <v>1.117052144959035</v>
+      </c>
+      <c r="M8">
+        <v>1.150072619533861</v>
+      </c>
+      <c r="N8">
+        <v>1.135881579601624</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.1083052427906</v>
+      </c>
+      <c r="D9">
+        <v>1.118228102458405</v>
+      </c>
+      <c r="E9">
+        <v>1.09528557101847</v>
+      </c>
+      <c r="F9">
+        <v>1.125590122843006</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.023759139049229</v>
+      </c>
+      <c r="J9">
+        <v>1.113685561410507</v>
+      </c>
+      <c r="K9">
+        <v>1.121143876931266</v>
+      </c>
+      <c r="L9">
+        <v>1.098266152716885</v>
+      </c>
+      <c r="M9">
+        <v>1.128485707873109</v>
+      </c>
+      <c r="N9">
+        <v>1.11526712264923</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.09305570948503</v>
+      </c>
+      <c r="D10">
+        <v>1.102913583986626</v>
+      </c>
+      <c r="E10">
+        <v>1.081568294525205</v>
+      </c>
+      <c r="F10">
+        <v>1.109918059474925</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.023874603872166</v>
+      </c>
+      <c r="J10">
+        <v>1.099017963354947</v>
+      </c>
+      <c r="K10">
+        <v>1.106135991558846</v>
+      </c>
+      <c r="L10">
+        <v>1.084858611422655</v>
+      </c>
+      <c r="M10">
+        <v>1.113118804096231</v>
+      </c>
+      <c r="N10">
+        <v>1.100578694922033</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.086180893475649</v>
+      </c>
+      <c r="D11">
+        <v>1.096009776421876</v>
+      </c>
+      <c r="E11">
+        <v>1.075378371078185</v>
+      </c>
+      <c r="F11">
+        <v>1.102854745939089</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.023921309042974</v>
+      </c>
+      <c r="J11">
+        <v>1.092401591209084</v>
+      </c>
+      <c r="K11">
+        <v>1.099367796840161</v>
+      </c>
+      <c r="L11">
+        <v>1.078805379103241</v>
+      </c>
+      <c r="M11">
+        <v>1.106190502934302</v>
+      </c>
+      <c r="N11">
+        <v>1.093952926768815</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.083582259036652</v>
+      </c>
+      <c r="D12">
+        <v>1.093400234195238</v>
+      </c>
+      <c r="E12">
+        <v>1.073037740078163</v>
+      </c>
+      <c r="F12">
+        <v>1.100185167853124</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.023938164268118</v>
+      </c>
+      <c r="J12">
+        <v>1.08990005353583</v>
+      </c>
+      <c r="K12">
+        <v>1.096809113338062</v>
+      </c>
+      <c r="L12">
+        <v>1.076515962761021</v>
+      </c>
+      <c r="M12">
+        <v>1.103571566828489</v>
+      </c>
+      <c r="N12">
+        <v>1.091447836625134</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.084141786069542</v>
+      </c>
+      <c r="D13">
+        <v>1.093962107467175</v>
+      </c>
+      <c r="E13">
+        <v>1.073541754625414</v>
+      </c>
+      <c r="F13">
+        <v>1.100759956167132</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.023934571058995</v>
+      </c>
+      <c r="J13">
+        <v>1.09043870098624</v>
+      </c>
+      <c r="K13">
+        <v>1.097360054198971</v>
+      </c>
+      <c r="L13">
+        <v>1.077008970651456</v>
+      </c>
+      <c r="M13">
+        <v>1.104135468927151</v>
+      </c>
+      <c r="N13">
+        <v>1.091987249016708</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.085967034329817</v>
+      </c>
+      <c r="D14">
+        <v>1.095795018539077</v>
+      </c>
+      <c r="E14">
+        <v>1.075185762634627</v>
+      </c>
+      <c r="F14">
+        <v>1.102635042080772</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.023922712353274</v>
+      </c>
+      <c r="J14">
+        <v>1.092195734883301</v>
+      </c>
+      <c r="K14">
+        <v>1.099157232666006</v>
+      </c>
+      <c r="L14">
+        <v>1.07861699472993</v>
+      </c>
+      <c r="M14">
+        <v>1.105974974735814</v>
+      </c>
+      <c r="N14">
+        <v>1.093746778103437</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.087085528714647</v>
+      </c>
+      <c r="D15">
+        <v>1.096918215462347</v>
+      </c>
+      <c r="E15">
+        <v>1.076193078928563</v>
+      </c>
+      <c r="F15">
+        <v>1.103784117155141</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.023915340507296</v>
+      </c>
+      <c r="J15">
+        <v>1.09327234994297</v>
+      </c>
+      <c r="K15">
+        <v>1.10025847988223</v>
+      </c>
+      <c r="L15">
+        <v>1.079602200401887</v>
+      </c>
+      <c r="M15">
+        <v>1.107102194919336</v>
+      </c>
+      <c r="N15">
+        <v>1.09482492207998</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.09350589823435</v>
+      </c>
+      <c r="D16">
+        <v>1.103365677942213</v>
+      </c>
+      <c r="E16">
+        <v>1.081973512208005</v>
+      </c>
+      <c r="F16">
+        <v>1.110380633648693</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.023871434968932</v>
+      </c>
+      <c r="J16">
+        <v>1.099451146747974</v>
+      </c>
+      <c r="K16">
+        <v>1.106579150050987</v>
+      </c>
+      <c r="L16">
+        <v>1.085254816106909</v>
+      </c>
+      <c r="M16">
+        <v>1.113572483502696</v>
+      </c>
+      <c r="N16">
+        <v>1.101012493485165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.097457694725229</v>
+      </c>
+      <c r="D17">
+        <v>1.107334233542747</v>
+      </c>
+      <c r="E17">
+        <v>1.085529883873921</v>
+      </c>
+      <c r="F17">
+        <v>1.114441376207703</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.023843013862359</v>
+      </c>
+      <c r="J17">
+        <v>1.10325322643717</v>
+      </c>
+      <c r="K17">
+        <v>1.110468971815011</v>
+      </c>
+      <c r="L17">
+        <v>1.088731736738839</v>
+      </c>
+      <c r="M17">
+        <v>1.117554856744352</v>
+      </c>
+      <c r="N17">
+        <v>1.104819972563625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.099736810869522</v>
+      </c>
+      <c r="D18">
+        <v>1.109623043537066</v>
+      </c>
+      <c r="E18">
+        <v>1.087580392955144</v>
+      </c>
+      <c r="F18">
+        <v>1.116783511344597</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.023826118601775</v>
+      </c>
+      <c r="J18">
+        <v>1.105445629263596</v>
+      </c>
+      <c r="K18">
+        <v>1.112712127164242</v>
+      </c>
+      <c r="L18">
+        <v>1.090736147643241</v>
+      </c>
+      <c r="M18">
+        <v>1.119851553429004</v>
+      </c>
+      <c r="N18">
+        <v>1.107015488853537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.100509656304311</v>
+      </c>
+      <c r="D19">
+        <v>1.11039918081996</v>
+      </c>
+      <c r="E19">
+        <v>1.088275623994356</v>
+      </c>
+      <c r="F19">
+        <v>1.117577757856031</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.023820303822167</v>
+      </c>
+      <c r="J19">
+        <v>1.106189008215875</v>
+      </c>
+      <c r="K19">
+        <v>1.113472741417493</v>
+      </c>
+      <c r="L19">
+        <v>1.091415700278184</v>
+      </c>
+      <c r="M19">
+        <v>1.120630351215262</v>
+      </c>
+      <c r="N19">
+        <v>1.107759923489193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.097036411926319</v>
+      </c>
+      <c r="D20">
+        <v>1.106911161150307</v>
+      </c>
+      <c r="E20">
+        <v>1.085150813037522</v>
+      </c>
+      <c r="F20">
+        <v>1.11400845972576</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.023846096030143</v>
+      </c>
+      <c r="J20">
+        <v>1.102847942457211</v>
+      </c>
+      <c r="K20">
+        <v>1.110054318540324</v>
+      </c>
+      <c r="L20">
+        <v>1.088361164607638</v>
+      </c>
+      <c r="M20">
+        <v>1.117130319896558</v>
+      </c>
+      <c r="N20">
+        <v>1.104414113033928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.085430823676806</v>
+      </c>
+      <c r="D21">
+        <v>1.09525655531147</v>
+      </c>
+      <c r="E21">
+        <v>1.074702819862754</v>
+      </c>
+      <c r="F21">
+        <v>1.102084181906119</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.02392621804881</v>
+      </c>
+      <c r="J21">
+        <v>1.09167958019678</v>
+      </c>
+      <c r="K21">
+        <v>1.09862927786243</v>
+      </c>
+      <c r="L21">
+        <v>1.078144635664499</v>
+      </c>
+      <c r="M21">
+        <v>1.105434577898109</v>
+      </c>
+      <c r="N21">
+        <v>1.093229890418058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>1.077870925960497</v>
+      </c>
+      <c r="D22">
+        <v>1.087665027472575</v>
+      </c>
+      <c r="E22">
+        <v>1.067891831379164</v>
+      </c>
+      <c r="F22">
+        <v>1.094318489550806</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.023973741382756</v>
+      </c>
+      <c r="J22">
+        <v>1.084401020702391</v>
+      </c>
+      <c r="K22">
+        <v>1.091184934809659</v>
+      </c>
+      <c r="L22">
+        <v>1.07148176503723</v>
+      </c>
+      <c r="M22">
+        <v>1.09781545999048</v>
+      </c>
+      <c r="N22">
+        <v>1.085940994534324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.081905060516282</v>
+      </c>
+      <c r="D23">
+        <v>1.091716010618962</v>
+      </c>
+      <c r="E23">
+        <v>1.071526812936182</v>
+      </c>
+      <c r="F23">
+        <v>1.098462268902557</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.023948818288664</v>
+      </c>
+      <c r="J23">
+        <v>1.088285354713098</v>
+      </c>
+      <c r="K23">
+        <v>1.095157600437883</v>
+      </c>
+      <c r="L23">
+        <v>1.075037960984516</v>
+      </c>
+      <c r="M23">
+        <v>1.101881241633879</v>
+      </c>
+      <c r="N23">
+        <v>1.089830844744865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.09722685121647</v>
+      </c>
+      <c r="D24">
+        <v>1.107102409331657</v>
+      </c>
+      <c r="E24">
+        <v>1.085322172290683</v>
+      </c>
+      <c r="F24">
+        <v>1.114204157399344</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.023844704313072</v>
+      </c>
+      <c r="J24">
+        <v>1.103031150681862</v>
+      </c>
+      <c r="K24">
+        <v>1.110241761656389</v>
+      </c>
+      <c r="L24">
+        <v>1.088528682910898</v>
+      </c>
+      <c r="M24">
+        <v>1.1173222303348</v>
+      </c>
+      <c r="N24">
+        <v>1.104597581435272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.114001492989602</v>
+      </c>
+      <c r="D25">
+        <v>1.123948858602849</v>
+      </c>
+      <c r="E25">
+        <v>1.100404441589325</v>
+      </c>
+      <c r="F25">
+        <v>1.131445849398025</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.02371141742819</v>
+      </c>
+      <c r="J25">
+        <v>1.119161147016901</v>
+      </c>
+      <c r="K25">
+        <v>1.126747902623064</v>
+      </c>
+      <c r="L25">
+        <v>1.103266881293812</v>
+      </c>
+      <c r="M25">
+        <v>1.134225305131801</v>
+      </c>
+      <c r="N25">
+        <v>1.120750484215242</v>
       </c>
     </row>
   </sheetData>
